--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit2-Robo2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H2">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I2">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J2">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="N2">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="O2">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="P2">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="Q2">
-        <v>0.005312200044444444</v>
+        <v>0.1318849486168889</v>
       </c>
       <c r="R2">
-        <v>0.0478098004</v>
+        <v>1.186964537552</v>
       </c>
       <c r="S2">
-        <v>0.01119214056254572</v>
+        <v>0.02303912490840226</v>
       </c>
       <c r="T2">
-        <v>0.01119214056254571</v>
+        <v>0.02303912490840225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H3">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I3">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J3">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.060942</v>
       </c>
       <c r="O3">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="P3">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="Q3">
-        <v>0.0006791647333333333</v>
+        <v>0.0009261084886666667</v>
       </c>
       <c r="R3">
-        <v>0.0061124826</v>
+        <v>0.008334976398</v>
       </c>
       <c r="S3">
-        <v>0.001430915081697662</v>
+        <v>0.0001617828976914098</v>
       </c>
       <c r="T3">
-        <v>0.001430915081697662</v>
+        <v>0.0001617828976914098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H4">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I4">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J4">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.209095</v>
       </c>
       <c r="O4">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="P4">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="Q4">
-        <v>0.002330247611111112</v>
+        <v>0.003177523783888889</v>
       </c>
       <c r="R4">
-        <v>0.0209722285</v>
+        <v>0.028597714055</v>
       </c>
       <c r="S4">
-        <v>0.004909540038193243</v>
+        <v>0.0005550850807782043</v>
       </c>
       <c r="T4">
-        <v>0.004909540038193242</v>
+        <v>0.0005550850807782042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.13889</v>
       </c>
       <c r="I5">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J5">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="N5">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="O5">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="P5">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="Q5">
-        <v>0.06031915761333333</v>
+        <v>1.098219985013333</v>
       </c>
       <c r="R5">
-        <v>0.54287241852</v>
+        <v>9.883979865120001</v>
       </c>
       <c r="S5">
-        <v>0.1270849149080527</v>
+        <v>0.1918492419110343</v>
       </c>
       <c r="T5">
-        <v>0.1270849149080527</v>
+        <v>0.1918492419110343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.13889</v>
       </c>
       <c r="I6">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J6">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.060942</v>
       </c>
       <c r="O6">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="P6">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="Q6">
-        <v>0.007711803819999999</v>
+        <v>0.00771180382</v>
       </c>
       <c r="R6">
-        <v>0.06940623437999999</v>
+        <v>0.06940623438</v>
       </c>
       <c r="S6">
-        <v>0.01624780535787288</v>
+        <v>0.001347183384771181</v>
       </c>
       <c r="T6">
-        <v>0.01624780535787288</v>
+        <v>0.001347183384771181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.13889</v>
       </c>
       <c r="I7">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J7">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.209095</v>
       </c>
       <c r="O7">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="P7">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="Q7">
         <v>0.02645957828333333</v>
@@ -880,10 +880,10 @@
         <v>0.23813620455</v>
       </c>
       <c r="S7">
-        <v>0.05574701948253143</v>
+        <v>0.004622252466914938</v>
       </c>
       <c r="T7">
-        <v>0.05574701948253143</v>
+        <v>0.004622252466914937</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I8">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J8">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="N8">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="O8">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="P8">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="Q8">
-        <v>0.2373585783826667</v>
+        <v>4.321544675162667</v>
       </c>
       <c r="R8">
-        <v>2.136227205444</v>
+        <v>38.89390207646401</v>
       </c>
       <c r="S8">
-        <v>0.5000848143441209</v>
+        <v>0.7549353327462518</v>
       </c>
       <c r="T8">
-        <v>0.5000848143441209</v>
+        <v>0.7549353327462519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I9">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J9">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.060942</v>
       </c>
       <c r="O9">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="P9">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="Q9">
-        <v>0.030346292354</v>
+        <v>0.03034629235400001</v>
       </c>
       <c r="R9">
         <v>0.273116631186</v>
       </c>
       <c r="S9">
-        <v>0.06393583952721688</v>
+        <v>0.005301226769111139</v>
       </c>
       <c r="T9">
-        <v>0.06393583952721688</v>
+        <v>0.005301226769111139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I10">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J10">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.209095</v>
       </c>
       <c r="O10">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="P10">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="Q10">
         <v>0.1041196219316667</v>
@@ -1066,10 +1066,10 @@
         <v>0.9370765973850002</v>
       </c>
       <c r="S10">
-        <v>0.2193670106977686</v>
+        <v>0.01818876983504469</v>
       </c>
       <c r="T10">
-        <v>0.2193670106977686</v>
+        <v>0.01818876983504469</v>
       </c>
     </row>
   </sheetData>
